--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,22 +534,22 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="C1" pane="bottomLeft" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -520,7 +588,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
@@ -547,7 +615,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>2</v>
+        <v>249</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
@@ -574,7 +642,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>3</v>
+        <v>250</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
@@ -603,9 +671,9 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
@@ -630,9 +698,9 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
-        <v>5</v>
+        <v>252</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
@@ -657,9 +725,9 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
-        <v>6</v>
+        <v>253</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
@@ -688,9 +756,9 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
-        <v>7</v>
+        <v>254</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
@@ -715,9 +783,9 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" s="3" t="n">
-        <v>8</v>
+        <v>255</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
@@ -742,9 +810,9 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" s="3" t="n">
-        <v>9</v>
+        <v>256</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>1</v>
@@ -773,9 +841,9 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" s="3" t="n">
-        <v>10</v>
+        <v>257</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>1</v>
@@ -800,9 +868,9 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" s="3" t="n">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
@@ -829,7 +897,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>1</v>
@@ -858,9 +926,9 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" s="3" t="n">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>1</v>
@@ -884,9 +952,9 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" s="3" t="n">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="B15" s="8" t="n">
         <v>1</v>
@@ -910,9 +978,9 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="16" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="16">
       <c r="A16" s="3" t="n">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>1</v>
@@ -938,7 +1006,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>1</v>
@@ -970,7 +1038,7 @@
     <row r="18"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -982,7 +1050,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -994,7 +1062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1005,7 +1073,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,22 +466,22 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="C1" pane="bottomLeft" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -671,7 +603,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>251</v>
       </c>
@@ -698,7 +630,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>252</v>
       </c>
@@ -725,7 +657,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>253</v>
       </c>
@@ -756,7 +688,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>254</v>
       </c>
@@ -783,7 +715,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>255</v>
       </c>
@@ -810,7 +742,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" s="3" t="n">
         <v>256</v>
       </c>
@@ -841,7 +773,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" s="3" t="n">
         <v>257</v>
       </c>
@@ -868,7 +800,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" s="3" t="n">
         <v>258</v>
       </c>
@@ -926,7 +858,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" s="3" t="n">
         <v>260</v>
       </c>
@@ -952,7 +884,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" s="3" t="n">
         <v>261</v>
       </c>
@@ -978,7 +910,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="16">
+    <row r="16" ht="27.6" customHeight="1">
       <c r="A16" s="3" t="n">
         <v>262</v>
       </c>
@@ -1038,7 +970,7 @@
     <row r="18"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1050,7 +982,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1062,7 +994,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1073,7 +1005,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -532,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A10" ySplit="1"/>
@@ -1087,6 +1087,7 @@
         <v>210310</v>
       </c>
     </row>
+    <row r="20"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule priority="3" type="colorScale">

--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,22 +466,22 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A10" ySplit="1"/>
-      <selection activeCell="G20" pane="bottomLeft" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -671,7 +603,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>251</v>
       </c>
@@ -698,7 +630,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>252</v>
       </c>
@@ -725,7 +657,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>253</v>
       </c>
@@ -756,7 +688,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>254</v>
       </c>
@@ -783,7 +715,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>255</v>
       </c>
@@ -810,7 +742,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" s="3" t="n">
         <v>256</v>
       </c>
@@ -841,7 +773,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" s="3" t="n">
         <v>257</v>
       </c>
@@ -868,7 +800,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" s="3" t="n">
         <v>258</v>
       </c>
@@ -926,7 +858,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" s="3" t="n">
         <v>260</v>
       </c>
@@ -952,7 +884,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" s="3" t="n">
         <v>261</v>
       </c>
@@ -978,7 +910,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="16">
+    <row r="16" ht="27.6" customHeight="1">
       <c r="A16" s="3" t="n">
         <v>262</v>
       </c>
@@ -1035,7 +967,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" t="n">
         <v>328</v>
       </c>
@@ -1061,7 +993,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="19">
+    <row r="19" ht="27.6" customHeight="1">
       <c r="A19" t="n">
         <v>329</v>
       </c>
@@ -1090,7 +1022,7 @@
     <row r="20"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1102,7 +1034,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1114,7 +1046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1125,7 +1057,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,22 +534,22 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A10" ySplit="1"/>
+      <selection activeCell="G20" pane="bottomLeft" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -603,7 +671,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>251</v>
       </c>
@@ -630,7 +698,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>252</v>
       </c>
@@ -657,7 +725,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
         <v>253</v>
       </c>
@@ -688,7 +756,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>254</v>
       </c>
@@ -715,7 +783,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" s="3" t="n">
         <v>255</v>
       </c>
@@ -742,7 +810,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" s="3" t="n">
         <v>256</v>
       </c>
@@ -773,7 +841,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" s="3" t="n">
         <v>257</v>
       </c>
@@ -800,7 +868,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" s="3" t="n">
         <v>258</v>
       </c>
@@ -858,7 +926,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" s="3" t="n">
         <v>260</v>
       </c>
@@ -884,7 +952,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" s="3" t="n">
         <v>261</v>
       </c>
@@ -910,7 +978,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="16" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="16">
       <c r="A16" s="3" t="n">
         <v>262</v>
       </c>
@@ -967,7 +1035,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" t="n">
         <v>328</v>
       </c>
@@ -993,7 +1061,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row r="19" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="19">
       <c r="A19" t="n">
         <v>329</v>
       </c>
@@ -1022,7 +1090,7 @@
     <row r="20"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1034,7 +1102,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1046,7 +1114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1057,7 +1125,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
+      <selection activeCell="D12" pane="bottomLeft" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -603,7 +671,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>251</v>
       </c>
@@ -630,7 +698,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>252</v>
       </c>
@@ -657,7 +725,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
         <v>253</v>
       </c>
@@ -688,7 +756,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>254</v>
       </c>
@@ -697,7 +765,7 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D8" s="6" t="inlineStr">
@@ -715,7 +783,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" s="3" t="n">
         <v>255</v>
       </c>
@@ -724,7 +792,7 @@
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D9" s="6" t="inlineStr">
@@ -742,287 +810,344 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
-      <c r="A10" s="3" t="n">
+    <row customHeight="1" ht="27.6" r="10">
+      <c r="A10" t="n">
+        <v>349</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Natural Numbers = p***** i*****</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>positive integers</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="n"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="11">
+      <c r="A11" t="n">
+        <v>350</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>Positive Integers = n***** n*****</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>natural numbers</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="n"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="12">
+      <c r="A12" s="3" t="n">
         <v>256</v>
       </c>
-      <c r="B10" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
+      <c r="B12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t>Natual Numbers can be negative</t>
         </is>
       </c>
-      <c r="E10" s="9" t="inlineStr">
+      <c r="E12" s="9" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="F12" s="9" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G10" s="12" t="n">
-        <v>210218</v>
-      </c>
-    </row>
-    <row r="11" ht="27.6" customHeight="1">
-      <c r="A11" s="3" t="n">
+      <c r="G12" s="12" t="n">
+        <v>210218</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="13">
+      <c r="A13" s="3" t="n">
         <v>257</v>
       </c>
-      <c r="B11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="B13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D11" s="6" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t>Counting Numbers = another n***** for Natural Numbers</t>
         </is>
       </c>
-      <c r="E11" s="6" t="inlineStr">
+      <c r="E13" s="6" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="F11" s="6" t="n"/>
-      <c r="G11" s="12" t="n">
-        <v>210218</v>
-      </c>
-    </row>
-    <row r="12" ht="27.6" customHeight="1">
-      <c r="A12" s="3" t="n">
+      <c r="F13" s="6" t="n"/>
+      <c r="G13" s="12" t="n">
+        <v>210218</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="14">
+      <c r="A14" s="3" t="n">
         <v>258</v>
       </c>
-      <c r="B12" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="B14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D12" s="6" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t>Counting Numbers = a***** name for Natual Numbers</t>
         </is>
       </c>
-      <c r="E12" s="6" t="inlineStr">
+      <c r="E14" s="6" t="inlineStr">
         <is>
           <t>another</t>
         </is>
       </c>
-      <c r="F12" s="6" t="n"/>
-      <c r="G12" s="12" t="n">
-        <v>210218</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="F14" s="6" t="n"/>
+      <c r="G14" s="12" t="n">
+        <v>210218</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
         <v>259</v>
       </c>
-      <c r="B13" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
+      <c r="B15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D13" s="6" t="inlineStr">
+      <c r="D15" s="6" t="inlineStr">
         <is>
           <t>Counting Numbers can be negative</t>
         </is>
       </c>
-      <c r="E13" s="6" t="inlineStr">
+      <c r="E15" s="6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="F13" s="6" t="inlineStr">
+      <c r="F15" s="6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G13" s="12" t="n">
-        <v>210218</v>
-      </c>
-    </row>
-    <row r="14" ht="27.6" customHeight="1">
-      <c r="A14" s="3" t="n">
+      <c r="G15" s="12" t="n">
+        <v>210218</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="16">
+      <c r="A16" s="3" t="n">
         <v>260</v>
       </c>
-      <c r="B14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8" t="inlineStr">
+      <c r="B16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D14" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Rational Number = Number that can be written as a f*****</t>
         </is>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>fraction</t>
         </is>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>210218</v>
-      </c>
-    </row>
-    <row r="15" ht="27.6" customHeight="1">
-      <c r="A15" s="3" t="n">
+      <c r="G16" s="12" t="n">
+        <v>210218</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="17">
+      <c r="A17" s="3" t="n">
         <v>261</v>
       </c>
-      <c r="B15" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8" t="inlineStr">
+      <c r="B17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D15" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>{p/q : p and q are integers, q is not zero} = r***** numbers</t>
         </is>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>rational</t>
         </is>
       </c>
-      <c r="G15" s="12" t="n">
-        <v>210218</v>
-      </c>
-    </row>
-    <row r="16" ht="27.6" customHeight="1">
-      <c r="A16" s="3" t="n">
+      <c r="G17" s="12" t="n">
+        <v>210218</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="18">
+      <c r="A18" s="3" t="n">
         <v>262</v>
       </c>
-      <c r="B16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
+      <c r="B18" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D16" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Rational Numbers = {p/q : p and q are i*****, q is not zero}</t>
         </is>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>integers</t>
         </is>
       </c>
-      <c r="G16" s="12" t="n">
-        <v>210218</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="G18" s="12" t="n">
+        <v>210218</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
         <v>263</v>
       </c>
-      <c r="B17" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8" t="inlineStr">
+      <c r="B19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D17" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Rational Numbers can be negative</t>
         </is>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G17" s="12" t="n">
-        <v>210218</v>
-      </c>
-    </row>
-    <row r="18" ht="27.6" customHeight="1">
-      <c r="A18" t="n">
+      <c r="G19" s="12" t="n">
+        <v>210218</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="20">
+      <c r="A20" t="n">
         <v>328</v>
       </c>
-      <c r="B18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
+      <c r="B20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D18" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Real Numbers are any number on the number l*****</t>
         </is>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>line</t>
         </is>
       </c>
-      <c r="G18" s="12" t="n">
+      <c r="G20" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row r="19" ht="27.6" customHeight="1">
-      <c r="A19" t="n">
+    <row customHeight="1" ht="27.6" r="21">
+      <c r="A21" t="n">
         <v>329</v>
       </c>
-      <c r="B19" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
+      <c r="B21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D19" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Real Numbers are any number on the n***** line</t>
         </is>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="G19" s="12" t="n">
+      <c r="G21" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row r="20"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1034,7 +1159,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1046,7 +1171,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1057,7 +1182,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -464,11 +464,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1027,66 +1027,68 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
+    <row r="20" ht="27.6" customHeight="1">
+      <c r="A20" t="n">
+        <v>362</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>Rational Numbers = {p/q : ***** and ***** are *****, q is not zero}</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>p and q are integers</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>200502</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
         <v>263</v>
       </c>
-      <c r="B20" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
+      <c r="B21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Rational Numbers can be negative</t>
         </is>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G20" s="12" t="n">
-        <v>210218</v>
-      </c>
-    </row>
-    <row r="21" ht="27.6" customHeight="1">
-      <c r="A21" t="n">
-        <v>328</v>
-      </c>
-      <c r="B21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>Real Numbers are any number on the number l*****</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
       <c r="G21" s="12" t="n">
-        <v>210310</v>
+        <v>210218</v>
       </c>
     </row>
     <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B22" s="8" t="n">
         <v>1</v>
@@ -1098,12 +1100,12 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>Real Numbers are any number on the n***** line</t>
+          <t>Real Numbers are any number on the number l*****</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>line</t>
         </is>
       </c>
       <c r="G22" s="12" t="n">
@@ -1112,9 +1114,9 @@
     </row>
     <row r="23" ht="27.6" customHeight="1">
       <c r="A23" t="n">
-        <v>355</v>
-      </c>
-      <c r="B23" t="n">
+        <v>329</v>
+      </c>
+      <c r="B23" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="8" t="inlineStr">
@@ -1124,23 +1126,21 @@
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>Number Type Ordering: ***** =&gt; Whole =&gt; Integer =&gt; Rational =&gt; Real</t>
+          <t>Real Numbers are any number on the n***** line</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>natural</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="G23" s="12" t="n">
+        <v>210310</v>
       </c>
     </row>
     <row r="24" ht="27.6" customHeight="1">
       <c r="A24" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -1152,12 +1152,12 @@
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>Number Type Ordering: Natural (Counting) =&gt; ***** =&gt; Integer =&gt; Rational =&gt; Real</t>
+          <t>Number Type Ordering: ***** =&gt; Whole =&gt; Integer =&gt; Rational =&gt; Real</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>whole</t>
+          <t>natural</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1168,7 +1168,7 @@
     </row>
     <row r="25" ht="27.6" customHeight="1">
       <c r="A25" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; ***** =&gt; Rational =&gt; Real</t>
+          <t>Number Type Ordering: Natural (Counting) =&gt; ***** =&gt; Integer =&gt; Rational =&gt; Real</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>whole</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1196,7 +1196,7 @@
     </row>
     <row r="26" ht="27.6" customHeight="1">
       <c r="A26" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -1208,12 +1208,12 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; ***** =&gt; Real</t>
+          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; ***** =&gt; Rational =&gt; Real</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>rational</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1224,33 +1224,173 @@
     </row>
     <row r="27" ht="27.6" customHeight="1">
       <c r="A27" t="n">
+        <v>358</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; ***** =&gt; Real</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>rational</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="27.6" customHeight="1">
+      <c r="A28" t="n">
         <v>359</v>
       </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; Rational =&gt; *****</t>
         </is>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>real</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>200427</t>
         </is>
       </c>
     </row>
-    <row r="28"/>
+    <row r="29" ht="27.6" customHeight="1">
+      <c r="A29" t="n">
+        <v>369</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>Irrational Numbers cannot be w***** as a fraction</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>written</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="27.6" customHeight="1">
+      <c r="A30" t="n">
+        <v>370</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>Irrational Numbers cannot be written as a f*****</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>fraction</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="27.6" customHeight="1">
+      <c r="A31" t="n">
+        <v>371</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>In ***** numbers, the decimal expansion goes on forever without repeating</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>irrational</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="27.6" customHeight="1">
+      <c r="A32" t="n">
+        <v>372</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>In Irrational Numbers, the decimal expansion goes on forever without *****ing</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>repeating</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="33"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A12" ySplit="1"/>
+      <selection activeCell="D21" pane="bottomLeft" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -603,7 +671,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>251</v>
       </c>
@@ -630,7 +698,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>252</v>
       </c>
@@ -657,7 +725,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
         <v>253</v>
       </c>
@@ -688,7 +756,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>254</v>
       </c>
@@ -715,7 +783,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" s="3" t="n">
         <v>255</v>
       </c>
@@ -742,7 +810,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>349</v>
       </c>
@@ -771,7 +839,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>350</v>
       </c>
@@ -800,7 +868,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" s="3" t="n">
         <v>256</v>
       </c>
@@ -831,7 +899,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" s="3" t="n">
         <v>257</v>
       </c>
@@ -858,7 +926,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" s="3" t="n">
         <v>258</v>
       </c>
@@ -885,7 +953,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" t="n">
         <v>354</v>
       </c>
@@ -949,7 +1017,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17">
       <c r="A17" s="3" t="n">
         <v>260</v>
       </c>
@@ -975,7 +1043,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" s="3" t="n">
         <v>261</v>
       </c>
@@ -1001,7 +1069,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="19" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="19">
       <c r="A19" s="3" t="n">
         <v>262</v>
       </c>
@@ -1027,7 +1095,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20">
       <c r="A20" t="n">
         <v>362</v>
       </c>
@@ -1086,7 +1154,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="22" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="22">
       <c r="A22" t="n">
         <v>328</v>
       </c>
@@ -1112,7 +1180,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row r="23" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="23">
       <c r="A23" t="n">
         <v>329</v>
       </c>
@@ -1138,7 +1206,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row r="24" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="24">
       <c r="A24" t="n">
         <v>355</v>
       </c>
@@ -1166,7 +1234,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="25">
       <c r="A25" t="n">
         <v>356</v>
       </c>
@@ -1194,7 +1262,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="26">
       <c r="A26" t="n">
         <v>357</v>
       </c>
@@ -1222,7 +1290,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="27">
       <c r="A27" t="n">
         <v>358</v>
       </c>
@@ -1250,7 +1318,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="28">
       <c r="A28" t="n">
         <v>359</v>
       </c>
@@ -1278,7 +1346,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="29">
       <c r="A29" t="n">
         <v>369</v>
       </c>
@@ -1306,7 +1374,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="30">
       <c r="A30" t="n">
         <v>370</v>
       </c>
@@ -1334,7 +1402,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="31">
       <c r="A31" t="n">
         <v>371</v>
       </c>
@@ -1362,7 +1430,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="32">
       <c r="A32" t="n">
         <v>372</v>
       </c>
@@ -1390,10 +1458,9 @@
         </is>
       </c>
     </row>
-    <row r="33"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1405,7 +1472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1417,7 +1484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1428,7 +1495,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,24 +464,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A12" ySplit="1"/>
-      <selection activeCell="D21" pane="bottomLeft" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -671,7 +603,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>251</v>
       </c>
@@ -698,7 +630,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>252</v>
       </c>
@@ -725,7 +657,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>253</v>
       </c>
@@ -756,7 +688,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>254</v>
       </c>
@@ -783,7 +715,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>255</v>
       </c>
@@ -810,7 +742,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>349</v>
       </c>
@@ -839,7 +771,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>350</v>
       </c>
@@ -868,7 +800,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" s="3" t="n">
         <v>256</v>
       </c>
@@ -899,7 +831,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" s="3" t="n">
         <v>257</v>
       </c>
@@ -926,7 +858,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" s="3" t="n">
         <v>258</v>
       </c>
@@ -953,7 +885,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>354</v>
       </c>
@@ -1017,7 +949,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="17">
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" s="3" t="n">
         <v>260</v>
       </c>
@@ -1043,7 +975,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" s="3" t="n">
         <v>261</v>
       </c>
@@ -1069,7 +1001,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="19">
+    <row r="19" ht="27.6" customHeight="1">
       <c r="A19" s="3" t="n">
         <v>262</v>
       </c>
@@ -1095,7 +1027,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>362</v>
       </c>
@@ -1154,7 +1086,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="22">
+    <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
         <v>328</v>
       </c>
@@ -1180,7 +1112,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="23">
+    <row r="23" ht="27.6" customHeight="1">
       <c r="A23" t="n">
         <v>329</v>
       </c>
@@ -1206,7 +1138,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="24">
+    <row r="24" ht="27.6" customHeight="1">
       <c r="A24" t="n">
         <v>355</v>
       </c>
@@ -1234,7 +1166,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="25">
+    <row r="25" ht="27.6" customHeight="1">
       <c r="A25" t="n">
         <v>356</v>
       </c>
@@ -1262,7 +1194,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="26">
+    <row r="26" ht="27.6" customHeight="1">
       <c r="A26" t="n">
         <v>357</v>
       </c>
@@ -1290,7 +1222,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="27">
+    <row r="27" ht="27.6" customHeight="1">
       <c r="A27" t="n">
         <v>358</v>
       </c>
@@ -1318,7 +1250,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="28">
+    <row r="28" ht="27.6" customHeight="1">
       <c r="A28" t="n">
         <v>359</v>
       </c>
@@ -1346,7 +1278,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="29">
+    <row r="29" ht="27.6" customHeight="1">
       <c r="A29" t="n">
         <v>369</v>
       </c>
@@ -1374,7 +1306,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="30">
+    <row r="30" ht="27.6" customHeight="1">
       <c r="A30" t="n">
         <v>370</v>
       </c>
@@ -1402,7 +1334,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="31">
+    <row r="31" ht="27.6" customHeight="1">
       <c r="A31" t="n">
         <v>371</v>
       </c>
@@ -1430,7 +1362,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="32">
+    <row r="32" ht="27.6" customHeight="1">
       <c r="A32" t="n">
         <v>372</v>
       </c>
@@ -1458,9 +1390,10 @@
         </is>
       </c>
     </row>
+    <row r="33"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1472,7 +1405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1484,7 +1417,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1495,7 +1428,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,215 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Integer = Number w***** no fractional part</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>Integer = Number with n***** fractional part</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Integer can be negative</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Whole Numbers = positive integers with z*****</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>Whole Numbers = positive i***** with zero</t>
+  </si>
+  <si>
+    <t>integers</t>
+  </si>
+  <si>
+    <t>Whole Numbers can be negative</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Natural Numbers = positive i*****</t>
+  </si>
+  <si>
+    <t>Natural Numbers = p***** integers</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>Natural Numbers = p***** i*****</t>
+  </si>
+  <si>
+    <t>positive integers</t>
+  </si>
+  <si>
+    <t>200421</t>
+  </si>
+  <si>
+    <t>Positive Integers = n***** n*****</t>
+  </si>
+  <si>
+    <t>natural numbers</t>
+  </si>
+  <si>
+    <t>Natual Numbers can be negative</t>
+  </si>
+  <si>
+    <t>Counting Numbers = another n***** for Natural Numbers</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Counting Numbers = a***** name for Natual Numbers</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>Counting Numbers = Natural Numbers</t>
+  </si>
+  <si>
+    <t>200427</t>
+  </si>
+  <si>
+    <t>Counting Numbers can be negative</t>
+  </si>
+  <si>
+    <t>Rational Number = Number that can be written as a f*****</t>
+  </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>{p/q : p and q are integers, q is not zero} = r***** numbers</t>
+  </si>
+  <si>
+    <t>rational</t>
+  </si>
+  <si>
+    <t>Rational Numbers = {p/q : p and q are i*****, q is not zero}</t>
+  </si>
+  <si>
+    <t>Rational Numbers = {p/q : ***** and ***** are *****, q is not zero}</t>
+  </si>
+  <si>
+    <t>p and q are integers</t>
+  </si>
+  <si>
+    <t>200502</t>
+  </si>
+  <si>
+    <t>Rational Numbers can be negative</t>
+  </si>
+  <si>
+    <t>Real Numbers are any number on the number l*****</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>Real Numbers are any number on the n***** line</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Number Type Ordering: ***** =&gt; Whole =&gt; Integer =&gt; Rational =&gt; Real</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>Number Type Ordering: Natural (Counting) =&gt; ***** =&gt; Integer =&gt; Rational =&gt; Real</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; ***** =&gt; Rational =&gt; Real</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; ***** =&gt; Real</t>
+  </si>
+  <si>
+    <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; Rational =&gt; *****</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>Irrational Numbers cannot be w***** as a fraction</t>
+  </si>
+  <si>
+    <t>written</t>
+  </si>
+  <si>
+    <t>200503</t>
+  </si>
+  <si>
+    <t>Irrational Numbers cannot be written as a f*****</t>
+  </si>
+  <si>
+    <t>In ***** numbers, the decimal expansion goes on forever without repeating</t>
+  </si>
+  <si>
+    <t>irrational</t>
+  </si>
+  <si>
+    <t>In Irrational Numbers, the decimal expansion goes on forever without *****ing</t>
+  </si>
+  <si>
+    <t>repeating</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +358,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,934 +675,696 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A12" ySplit="1"/>
+      <selection activeCell="D21" pane="bottomLeft" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>248</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Integer = Number w***** no fractional part</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>249</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Integer = Number with n***** fractional part</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>250</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Integer can be negative</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" s="3" t="n">
         <v>251</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Whole Numbers = positive integers with z*****</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>zero</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="6" t="n"/>
       <c r="G5" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6" spans="1:7">
       <c r="A6" s="3" t="n">
         <v>252</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Whole Numbers = positive i***** with zero</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>integers</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="6" t="n"/>
       <c r="G6" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7" spans="1:7">
       <c r="A7" s="3" t="n">
         <v>253</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Whole Numbers can be negative</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8" spans="1:7">
       <c r="A8" s="3" t="n">
         <v>254</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Natural Numbers = positive i*****</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>integers</t>
-        </is>
+      <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F8" s="9" t="n"/>
       <c r="G8" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9" spans="1:7">
       <c r="A9" s="3" t="n">
         <v>255</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Natural Numbers = p***** integers</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F9" s="9" t="n"/>
       <c r="G9" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10" spans="1:7">
       <c r="A10" t="n">
         <v>349</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>Natural Numbers = p***** i*****</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>positive integers</t>
-        </is>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F10" s="9" t="n"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200421</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="27.6" customHeight="1">
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="11" spans="1:7">
       <c r="A11" t="n">
         <v>350</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>Positive Integers = n***** n*****</t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>natural numbers</t>
-        </is>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="F11" s="9" t="n"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>200421</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="27.6" customHeight="1">
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="12" spans="1:7">
       <c r="A12" s="3" t="n">
         <v>256</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>Natual Numbers can be negative</t>
-        </is>
-      </c>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13" spans="1:7">
       <c r="A13" s="3" t="n">
         <v>257</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>Counting Numbers = another n***** for Natural Numbers</t>
-        </is>
-      </c>
-      <c r="E13" s="6" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="F13" s="6" t="n"/>
       <c r="G13" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14" spans="1:7">
       <c r="A14" s="3" t="n">
         <v>258</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>Counting Numbers = a***** name for Natual Numbers</t>
-        </is>
-      </c>
-      <c r="E14" s="6" t="inlineStr">
-        <is>
-          <t>another</t>
-        </is>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="F14" s="6" t="n"/>
       <c r="G14" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15" spans="1:7">
       <c r="A15" t="n">
         <v>354</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>Counting Numbers = Natural Numbers</t>
-        </is>
-      </c>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F15" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="n">
         <v>259</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>Counting Numbers can be negative</t>
-        </is>
-      </c>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F16" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17" spans="1:7">
       <c r="A17" s="3" t="n">
         <v>260</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>Rational Number = Number that can be written as a f*****</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>fraction</t>
-        </is>
+      <c r="C17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18" spans="1:7">
       <c r="A18" s="3" t="n">
         <v>261</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>{p/q : p and q are integers, q is not zero} = r***** numbers</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>rational</t>
-        </is>
+      <c r="C18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="G18" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="19" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="19" spans="1:7">
       <c r="A19" s="3" t="n">
         <v>262</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>Rational Numbers = {p/q : p and q are i*****, q is not zero}</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>integers</t>
-        </is>
+      <c r="C19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20" spans="1:7">
       <c r="A20" t="n">
         <v>362</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>Rational Numbers = {p/q : ***** and ***** are *****, q is not zero}</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>p and q are integers</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>200502</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="n">
         <v>263</v>
       </c>
       <c r="B21" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>Rational Numbers can be negative</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="22" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="22" spans="1:7">
       <c r="A22" t="n">
         <v>328</v>
       </c>
       <c r="B22" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>Real Numbers are any number on the number l*****</t>
-        </is>
-      </c>
-      <c r="E22" s="5" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
+      <c r="C22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="G22" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row r="23" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="23" spans="1:7">
       <c r="A23" t="n">
         <v>329</v>
       </c>
       <c r="B23" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D23" s="5" t="inlineStr">
-        <is>
-          <t>Real Numbers are any number on the n***** line</t>
-        </is>
-      </c>
-      <c r="E23" s="5" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
+      <c r="C23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G23" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row r="24" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="24" spans="1:7">
       <c r="A24" t="n">
         <v>355</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D24" s="5" t="inlineStr">
-        <is>
-          <t>Number Type Ordering: ***** =&gt; Whole =&gt; Integer =&gt; Rational =&gt; Real</t>
-        </is>
-      </c>
-      <c r="E24" s="5" t="inlineStr">
-        <is>
-          <t>natural</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="27.6" customHeight="1">
+      <c r="C24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="25" spans="1:7">
       <c r="A25" t="n">
         <v>356</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D25" s="5" t="inlineStr">
-        <is>
-          <t>Number Type Ordering: Natural (Counting) =&gt; ***** =&gt; Integer =&gt; Rational =&gt; Real</t>
-        </is>
-      </c>
-      <c r="E25" s="5" t="inlineStr">
-        <is>
-          <t>whole</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="27.6" customHeight="1">
+      <c r="C25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="26" spans="1:7">
       <c r="A26" t="n">
         <v>357</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; ***** =&gt; Rational =&gt; Real</t>
-        </is>
-      </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="27.6" customHeight="1">
+      <c r="C26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="27" spans="1:7">
       <c r="A27" t="n">
         <v>358</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
-        <is>
-          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; ***** =&gt; Real</t>
-        </is>
-      </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>rational</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="27.6" customHeight="1">
+      <c r="C27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="28" spans="1:7">
       <c r="A28" t="n">
         <v>359</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; Rational =&gt; *****</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="27.6" customHeight="1">
+      <c r="C28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="29" spans="1:7">
       <c r="A29" t="n">
         <v>369</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>Irrational Numbers cannot be w***** as a fraction</t>
-        </is>
-      </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>written</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="27.6" customHeight="1">
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="30" spans="1:7">
       <c r="A30" t="n">
         <v>370</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>Irrational Numbers cannot be written as a f*****</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>fraction</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="27.6" customHeight="1">
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="31" spans="1:7">
       <c r="A31" t="n">
         <v>371</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
-        <is>
-          <t>In ***** numbers, the decimal expansion goes on forever without repeating</t>
-        </is>
-      </c>
-      <c r="E31" s="5" t="inlineStr">
-        <is>
-          <t>irrational</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="27.6" customHeight="1">
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="32" spans="1:7">
       <c r="A32" t="n">
         <v>372</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D32" s="5" t="inlineStr">
-        <is>
-          <t>In Irrational Numbers, the decimal expansion goes on forever without *****ing</t>
-        </is>
-      </c>
-      <c r="E32" s="5" t="inlineStr">
-        <is>
-          <t>repeating</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="33"/>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1405,7 +1376,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1417,7 +1388,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1428,7 +1399,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,215 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Integer = Number w***** no fractional part</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>Integer = Number with n***** fractional part</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Integer can be negative</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Whole Numbers = positive integers with z*****</t>
-  </si>
-  <si>
-    <t>zero</t>
-  </si>
-  <si>
-    <t>Whole Numbers = positive i***** with zero</t>
-  </si>
-  <si>
-    <t>integers</t>
-  </si>
-  <si>
-    <t>Whole Numbers can be negative</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Natural Numbers = positive i*****</t>
-  </si>
-  <si>
-    <t>Natural Numbers = p***** integers</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>Natural Numbers = p***** i*****</t>
-  </si>
-  <si>
-    <t>positive integers</t>
-  </si>
-  <si>
-    <t>200421</t>
-  </si>
-  <si>
-    <t>Positive Integers = n***** n*****</t>
-  </si>
-  <si>
-    <t>natural numbers</t>
-  </si>
-  <si>
-    <t>Natual Numbers can be negative</t>
-  </si>
-  <si>
-    <t>Counting Numbers = another n***** for Natural Numbers</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Counting Numbers = a***** name for Natual Numbers</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>Counting Numbers = Natural Numbers</t>
-  </si>
-  <si>
-    <t>200427</t>
-  </si>
-  <si>
-    <t>Counting Numbers can be negative</t>
-  </si>
-  <si>
-    <t>Rational Number = Number that can be written as a f*****</t>
-  </si>
-  <si>
-    <t>fraction</t>
-  </si>
-  <si>
-    <t>{p/q : p and q are integers, q is not zero} = r***** numbers</t>
-  </si>
-  <si>
-    <t>rational</t>
-  </si>
-  <si>
-    <t>Rational Numbers = {p/q : p and q are i*****, q is not zero}</t>
-  </si>
-  <si>
-    <t>Rational Numbers = {p/q : ***** and ***** are *****, q is not zero}</t>
-  </si>
-  <si>
-    <t>p and q are integers</t>
-  </si>
-  <si>
-    <t>200502</t>
-  </si>
-  <si>
-    <t>Rational Numbers can be negative</t>
-  </si>
-  <si>
-    <t>Real Numbers are any number on the number l*****</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>Real Numbers are any number on the n***** line</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>Number Type Ordering: ***** =&gt; Whole =&gt; Integer =&gt; Rational =&gt; Real</t>
-  </si>
-  <si>
-    <t>natural</t>
-  </si>
-  <si>
-    <t>Number Type Ordering: Natural (Counting) =&gt; ***** =&gt; Integer =&gt; Rational =&gt; Real</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; ***** =&gt; Rational =&gt; Real</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; ***** =&gt; Real</t>
-  </si>
-  <si>
-    <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; Rational =&gt; *****</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>Irrational Numbers cannot be w***** as a fraction</t>
-  </si>
-  <si>
-    <t>written</t>
-  </si>
-  <si>
-    <t>200503</t>
-  </si>
-  <si>
-    <t>Irrational Numbers cannot be written as a f*****</t>
-  </si>
-  <si>
-    <t>In ***** numbers, the decimal expansion goes on forever without repeating</t>
-  </si>
-  <si>
-    <t>irrational</t>
-  </si>
-  <si>
-    <t>In Irrational Numbers, the decimal expansion goes on forever without *****ing</t>
-  </si>
-  <si>
-    <t>repeating</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,51 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -675,696 +466,934 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A12" ySplit="1"/>
-      <selection activeCell="D21" pane="bottomLeft" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="3" t="n">
         <v>248</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Integer = Number w***** no fractional part</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3">
       <c r="A3" s="3" t="n">
         <v>249</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Integer = Number with n***** fractional part</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4">
       <c r="A4" s="3" t="n">
         <v>250</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Integer can be negative</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G4" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>251</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Whole Numbers = positive integers with z*****</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
       </c>
       <c r="F5" s="6" t="n"/>
       <c r="G5" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>252</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Whole Numbers = positive i***** with zero</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>integers</t>
+        </is>
       </c>
       <c r="F6" s="6" t="n"/>
       <c r="G6" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7" spans="1:7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>253</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>14</v>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Whole Numbers can be negative</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G7" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8" spans="1:7">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>254</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>19</v>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Natural Numbers = positive i*****</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>integers</t>
+        </is>
       </c>
       <c r="F8" s="9" t="n"/>
       <c r="G8" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9" spans="1:7">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>255</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>24</v>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Natural Numbers = p***** integers</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
       <c r="F9" s="9" t="n"/>
       <c r="G9" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10" spans="1:7">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>349</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>26</v>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Natural Numbers = p***** i*****</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>positive integers</t>
+        </is>
       </c>
       <c r="F10" s="9" t="n"/>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="11" spans="1:7">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>350</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>29</v>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>Positive Integers = n***** n*****</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>natural numbers</t>
+        </is>
       </c>
       <c r="F11" s="9" t="n"/>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="12" spans="1:7">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" s="3" t="n">
         <v>256</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>14</v>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>Natual Numbers can be negative</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G12" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13" spans="1:7">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" s="3" t="n">
         <v>257</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>32</v>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>Counting Numbers = another n***** for Natural Numbers</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
       </c>
       <c r="F13" s="6" t="n"/>
       <c r="G13" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14" spans="1:7">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" s="3" t="n">
         <v>258</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>34</v>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>Counting Numbers = a***** name for Natual Numbers</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>another</t>
+        </is>
       </c>
       <c r="F14" s="6" t="n"/>
       <c r="G14" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15" spans="1:7">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>354</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>Counting Numbers = Natural Numbers</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="3" t="n">
         <v>259</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>14</v>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>Counting Numbers can be negative</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G16" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="17" spans="1:7">
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" s="3" t="n">
         <v>260</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>39</v>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>Rational Number = Number that can be written as a f*****</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>fraction</t>
+        </is>
       </c>
       <c r="G17" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18" spans="1:7">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" s="3" t="n">
         <v>261</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>41</v>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>{p/q : p and q are integers, q is not zero} = r***** numbers</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>rational</t>
+        </is>
       </c>
       <c r="G18" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="19" spans="1:7">
+    <row r="19" ht="27.6" customHeight="1">
       <c r="A19" s="3" t="n">
         <v>262</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>19</v>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>Rational Numbers = {p/q : p and q are i*****, q is not zero}</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>integers</t>
+        </is>
       </c>
       <c r="G19" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20" spans="1:7">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>362</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>Rational Numbers = {p/q : ***** and ***** are *****, q is not zero}</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>p and q are integers</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>200502</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="3" t="n">
         <v>263</v>
       </c>
       <c r="B21" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>15</v>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>Rational Numbers can be negative</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G21" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="22" spans="1:7">
+    <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
         <v>328</v>
       </c>
       <c r="B22" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>48</v>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>Real Numbers are any number on the number l*****</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
       </c>
       <c r="G22" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="23" spans="1:7">
+    <row r="23" ht="27.6" customHeight="1">
       <c r="A23" t="n">
         <v>329</v>
       </c>
       <c r="B23" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>50</v>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>Real Numbers are any number on the n***** line</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
       </c>
       <c r="G23" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="24" spans="1:7">
+    <row r="24" ht="27.6" customHeight="1">
       <c r="A24" t="n">
         <v>355</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="25" spans="1:7">
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>Number Type Ordering: ***** =&gt; Whole =&gt; Integer =&gt; Rational =&gt; Real</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>natural</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="27.6" customHeight="1">
       <c r="A25" t="n">
         <v>356</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="26" spans="1:7">
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>Number Type Ordering: Natural (Counting) =&gt; ***** =&gt; Integer =&gt; Rational =&gt; Real</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>whole</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="27.6" customHeight="1">
       <c r="A26" t="n">
         <v>357</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="27" spans="1:7">
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; ***** =&gt; Rational =&gt; Real</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="27.6" customHeight="1">
       <c r="A27" t="n">
         <v>358</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="28" spans="1:7">
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; ***** =&gt; Real</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>rational</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="27.6" customHeight="1">
       <c r="A28" t="n">
         <v>359</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="29" spans="1:7">
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; Rational =&gt; *****</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="27.6" customHeight="1">
       <c r="A29" t="n">
         <v>369</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="30" spans="1:7">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>Irrational Numbers cannot be w***** as a fraction</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>written</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="27.6" customHeight="1">
       <c r="A30" t="n">
         <v>370</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="31" spans="1:7">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>Irrational Numbers cannot be written as a f*****</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>fraction</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="27.6" customHeight="1">
       <c r="A31" t="n">
         <v>371</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="32" spans="1:7">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>In ***** numbers, the decimal expansion goes on forever without repeating</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>irrational</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="27.6" customHeight="1">
       <c r="A32" t="n">
         <v>372</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>In Irrational Numbers, the decimal expansion goes on forever without *****ing</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>repeating</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="33"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1376,7 +1405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1388,7 +1417,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1399,7 +1428,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,22 +534,22 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A12" ySplit="1"/>
+      <selection activeCell="D21" pane="bottomLeft" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -603,7 +671,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>251</v>
       </c>
@@ -630,7 +698,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>252</v>
       </c>
@@ -657,7 +725,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
         <v>253</v>
       </c>
@@ -688,7 +756,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>254</v>
       </c>
@@ -715,7 +783,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" s="3" t="n">
         <v>255</v>
       </c>
@@ -742,7 +810,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>349</v>
       </c>
@@ -771,7 +839,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>350</v>
       </c>
@@ -800,7 +868,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" s="3" t="n">
         <v>256</v>
       </c>
@@ -831,7 +899,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" s="3" t="n">
         <v>257</v>
       </c>
@@ -858,7 +926,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" s="3" t="n">
         <v>258</v>
       </c>
@@ -885,7 +953,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" t="n">
         <v>354</v>
       </c>
@@ -949,7 +1017,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17">
       <c r="A17" s="3" t="n">
         <v>260</v>
       </c>
@@ -975,7 +1043,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" s="3" t="n">
         <v>261</v>
       </c>
@@ -1001,7 +1069,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="19" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="19">
       <c r="A19" s="3" t="n">
         <v>262</v>
       </c>
@@ -1027,7 +1095,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20">
       <c r="A20" t="n">
         <v>362</v>
       </c>
@@ -1086,7 +1154,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="22" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="22">
       <c r="A22" t="n">
         <v>328</v>
       </c>
@@ -1112,7 +1180,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row r="23" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="23">
       <c r="A23" t="n">
         <v>329</v>
       </c>
@@ -1138,7 +1206,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row r="24" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="24">
       <c r="A24" t="n">
         <v>355</v>
       </c>
@@ -1166,7 +1234,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="25">
       <c r="A25" t="n">
         <v>356</v>
       </c>
@@ -1194,7 +1262,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="26">
       <c r="A26" t="n">
         <v>357</v>
       </c>
@@ -1222,7 +1290,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="27">
       <c r="A27" t="n">
         <v>358</v>
       </c>
@@ -1250,7 +1318,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="28">
       <c r="A28" t="n">
         <v>359</v>
       </c>
@@ -1278,7 +1346,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="29">
       <c r="A29" t="n">
         <v>369</v>
       </c>
@@ -1306,7 +1374,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="30">
       <c r="A30" t="n">
         <v>370</v>
       </c>
@@ -1334,7 +1402,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="31">
       <c r="A31" t="n">
         <v>371</v>
       </c>
@@ -1362,7 +1430,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="32">
       <c r="A32" t="n">
         <v>372</v>
       </c>
@@ -1393,7 +1461,7 @@
     <row r="33"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1405,7 +1473,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1417,7 +1485,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1428,7 +1496,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,22 +466,22 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A12" ySplit="1"/>
-      <selection activeCell="D21" pane="bottomLeft" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -671,7 +603,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>251</v>
       </c>
@@ -698,7 +630,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>252</v>
       </c>
@@ -725,7 +657,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>253</v>
       </c>
@@ -756,7 +688,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>254</v>
       </c>
@@ -783,7 +715,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>255</v>
       </c>
@@ -810,7 +742,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>349</v>
       </c>
@@ -839,7 +771,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>350</v>
       </c>
@@ -868,7 +800,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" s="3" t="n">
         <v>256</v>
       </c>
@@ -899,7 +831,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" s="3" t="n">
         <v>257</v>
       </c>
@@ -926,7 +858,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" s="3" t="n">
         <v>258</v>
       </c>
@@ -953,7 +885,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>354</v>
       </c>
@@ -1017,7 +949,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="17">
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" s="3" t="n">
         <v>260</v>
       </c>
@@ -1043,7 +975,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" s="3" t="n">
         <v>261</v>
       </c>
@@ -1069,7 +1001,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="19">
+    <row r="19" ht="27.6" customHeight="1">
       <c r="A19" s="3" t="n">
         <v>262</v>
       </c>
@@ -1095,7 +1027,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>362</v>
       </c>
@@ -1154,7 +1086,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="22">
+    <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
         <v>328</v>
       </c>
@@ -1180,7 +1112,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="23">
+    <row r="23" ht="27.6" customHeight="1">
       <c r="A23" t="n">
         <v>329</v>
       </c>
@@ -1206,7 +1138,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="24">
+    <row r="24" ht="27.6" customHeight="1">
       <c r="A24" t="n">
         <v>355</v>
       </c>
@@ -1234,7 +1166,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="25">
+    <row r="25" ht="27.6" customHeight="1">
       <c r="A25" t="n">
         <v>356</v>
       </c>
@@ -1262,7 +1194,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="26">
+    <row r="26" ht="27.6" customHeight="1">
       <c r="A26" t="n">
         <v>357</v>
       </c>
@@ -1290,7 +1222,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="27">
+    <row r="27" ht="27.6" customHeight="1">
       <c r="A27" t="n">
         <v>358</v>
       </c>
@@ -1318,7 +1250,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="28">
+    <row r="28" ht="27.6" customHeight="1">
       <c r="A28" t="n">
         <v>359</v>
       </c>
@@ -1346,7 +1278,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="29">
+    <row r="29" ht="27.6" customHeight="1">
       <c r="A29" t="n">
         <v>369</v>
       </c>
@@ -1374,7 +1306,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="30">
+    <row r="30" ht="27.6" customHeight="1">
       <c r="A30" t="n">
         <v>370</v>
       </c>
@@ -1402,7 +1334,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="31">
+    <row r="31" ht="27.6" customHeight="1">
       <c r="A31" t="n">
         <v>371</v>
       </c>
@@ -1430,7 +1362,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="32">
+    <row r="32" ht="27.6" customHeight="1">
       <c r="A32" t="n">
         <v>372</v>
       </c>
@@ -1461,7 +1393,7 @@
     <row r="33"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1473,7 +1405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1485,7 +1417,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1496,7 +1428,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A12" ySplit="1"/>
+      <selection activeCell="D18" pane="bottomLeft" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -603,7 +671,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>251</v>
       </c>
@@ -630,7 +698,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" s="3" t="n">
         <v>252</v>
       </c>
@@ -657,7 +725,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" s="3" t="n">
         <v>253</v>
       </c>
@@ -688,7 +756,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8">
       <c r="A8" s="3" t="n">
         <v>254</v>
       </c>
@@ -715,7 +783,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" s="3" t="n">
         <v>255</v>
       </c>
@@ -742,7 +810,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>349</v>
       </c>
@@ -771,7 +839,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>350</v>
       </c>
@@ -800,7 +868,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" s="3" t="n">
         <v>256</v>
       </c>
@@ -831,7 +899,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" s="3" t="n">
         <v>257</v>
       </c>
@@ -858,7 +926,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" s="3" t="n">
         <v>258</v>
       </c>
@@ -885,7 +953,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" t="n">
         <v>354</v>
       </c>
@@ -949,7 +1017,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17">
       <c r="A17" s="3" t="n">
         <v>260</v>
       </c>
@@ -975,7 +1043,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" s="3" t="n">
         <v>261</v>
       </c>
@@ -1001,7 +1069,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="19" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="19">
       <c r="A19" s="3" t="n">
         <v>262</v>
       </c>
@@ -1027,7 +1095,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20">
       <c r="A20" t="n">
         <v>362</v>
       </c>
@@ -1086,7 +1154,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row r="22" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="22">
       <c r="A22" t="n">
         <v>328</v>
       </c>
@@ -1112,7 +1180,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row r="23" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="23">
       <c r="A23" t="n">
         <v>329</v>
       </c>
@@ -1138,7 +1206,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row r="24" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="24">
       <c r="A24" t="n">
         <v>355</v>
       </c>
@@ -1166,7 +1234,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="25">
       <c r="A25" t="n">
         <v>356</v>
       </c>
@@ -1194,7 +1262,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="26">
       <c r="A26" t="n">
         <v>357</v>
       </c>
@@ -1222,7 +1290,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="27">
       <c r="A27" t="n">
         <v>358</v>
       </c>
@@ -1250,7 +1318,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="28">
       <c r="A28" t="n">
         <v>359</v>
       </c>
@@ -1278,7 +1346,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="29">
       <c r="A29" t="n">
         <v>369</v>
       </c>
@@ -1306,7 +1374,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="30">
       <c r="A30" t="n">
         <v>370</v>
       </c>
@@ -1334,7 +1402,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="31">
       <c r="A31" t="n">
         <v>371</v>
       </c>
@@ -1362,7 +1430,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="32">
       <c r="A32" t="n">
         <v>372</v>
       </c>
@@ -1390,10 +1458,9 @@
         </is>
       </c>
     </row>
-    <row r="33"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1405,7 +1472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1417,7 +1484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1428,7 +1495,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,24 +464,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A12" ySplit="1"/>
-      <selection activeCell="D18" pane="bottomLeft" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -671,7 +603,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>251</v>
       </c>
@@ -698,7 +630,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>252</v>
       </c>
@@ -725,7 +657,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>253</v>
       </c>
@@ -756,7 +688,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>254</v>
       </c>
@@ -783,7 +715,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>255</v>
       </c>
@@ -810,7 +742,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>349</v>
       </c>
@@ -839,7 +771,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>350</v>
       </c>
@@ -868,7 +800,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" s="3" t="n">
         <v>256</v>
       </c>
@@ -899,7 +831,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" s="3" t="n">
         <v>257</v>
       </c>
@@ -926,7 +858,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" s="3" t="n">
         <v>258</v>
       </c>
@@ -953,7 +885,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>354</v>
       </c>
@@ -1017,7 +949,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="17">
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" s="3" t="n">
         <v>260</v>
       </c>
@@ -1043,7 +975,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" s="3" t="n">
         <v>261</v>
       </c>
@@ -1069,7 +1001,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="19">
+    <row r="19" ht="27.6" customHeight="1">
       <c r="A19" s="3" t="n">
         <v>262</v>
       </c>
@@ -1095,7 +1027,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>362</v>
       </c>
@@ -1154,7 +1086,7 @@
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="22">
+    <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
         <v>328</v>
       </c>
@@ -1180,7 +1112,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="23">
+    <row r="23" ht="27.6" customHeight="1">
       <c r="A23" t="n">
         <v>329</v>
       </c>
@@ -1206,7 +1138,7 @@
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="24">
+    <row r="24" ht="27.6" customHeight="1">
       <c r="A24" t="n">
         <v>355</v>
       </c>
@@ -1234,7 +1166,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="25">
+    <row r="25" ht="27.6" customHeight="1">
       <c r="A25" t="n">
         <v>356</v>
       </c>
@@ -1262,7 +1194,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="26">
+    <row r="26" ht="27.6" customHeight="1">
       <c r="A26" t="n">
         <v>357</v>
       </c>
@@ -1290,7 +1222,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="27">
+    <row r="27" ht="27.6" customHeight="1">
       <c r="A27" t="n">
         <v>358</v>
       </c>
@@ -1318,7 +1250,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="28">
+    <row r="28" ht="27.6" customHeight="1">
       <c r="A28" t="n">
         <v>359</v>
       </c>
@@ -1346,7 +1278,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="29">
+    <row r="29" ht="27.6" customHeight="1">
       <c r="A29" t="n">
         <v>369</v>
       </c>
@@ -1374,7 +1306,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="30">
+    <row r="30" ht="27.6" customHeight="1">
       <c r="A30" t="n">
         <v>370</v>
       </c>
@@ -1402,7 +1334,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="31">
+    <row r="31" ht="27.6" customHeight="1">
       <c r="A31" t="n">
         <v>371</v>
       </c>
@@ -1430,7 +1362,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="32">
+    <row r="32" ht="27.6" customHeight="1">
       <c r="A32" t="n">
         <v>372</v>
       </c>
@@ -1458,9 +1390,10 @@
         </is>
       </c>
     </row>
+    <row r="33"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1472,7 +1405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1484,7 +1417,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1495,7 +1428,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
@@ -1390,7 +1458,6 @@
         </is>
       </c>
     </row>
-    <row r="33"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
@@ -1458,6 +1390,7 @@
         </is>
       </c>
     </row>
+    <row r="33"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,215 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Integer = Number w***** no fractional part</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>Integer = Number with n***** fractional part</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Integer can be negative</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Whole Numbers = positive integers with z*****</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>Whole Numbers = positive i***** with zero</t>
+  </si>
+  <si>
+    <t>integers</t>
+  </si>
+  <si>
+    <t>Whole Numbers can be negative</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Natural Numbers = positive i*****</t>
+  </si>
+  <si>
+    <t>Natural Numbers = p***** integers</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>Natural Numbers = p***** i*****</t>
+  </si>
+  <si>
+    <t>positive integers</t>
+  </si>
+  <si>
+    <t>200421</t>
+  </si>
+  <si>
+    <t>Positive Integers = n***** n*****</t>
+  </si>
+  <si>
+    <t>natural numbers</t>
+  </si>
+  <si>
+    <t>Natual Numbers can be negative</t>
+  </si>
+  <si>
+    <t>Counting Numbers = another n***** for Natural Numbers</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Counting Numbers = a***** name for Natual Numbers</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>Counting Numbers = Natural Numbers</t>
+  </si>
+  <si>
+    <t>200427</t>
+  </si>
+  <si>
+    <t>Counting Numbers can be negative</t>
+  </si>
+  <si>
+    <t>Rational Number = Number that can be written as a *****</t>
+  </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>{p/q : p and q are integers, q is not zero} = r***** numbers</t>
+  </si>
+  <si>
+    <t>rational</t>
+  </si>
+  <si>
+    <t>Rational Numbers = {p/q : p and q are i*****, q is not zero}</t>
+  </si>
+  <si>
+    <t>Rational Numbers = {p/q : ***** and ***** are *****, q is not zero}</t>
+  </si>
+  <si>
+    <t>p and q are integers</t>
+  </si>
+  <si>
+    <t>200502</t>
+  </si>
+  <si>
+    <t>Rational Numbers can be negative</t>
+  </si>
+  <si>
+    <t>Real Numbers are any number on the number l*****</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>Real Numbers are any number on the n***** line</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Number Type Ordering: ***** =&gt; Whole =&gt; Integer =&gt; Rational =&gt; Real</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>Number Type Ordering: Natural (Counting) =&gt; ***** =&gt; Integer =&gt; Rational =&gt; Real</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; ***** =&gt; Rational =&gt; Real</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; ***** =&gt; Real</t>
+  </si>
+  <si>
+    <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; Rational =&gt; *****</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>Irrational Numbers cannot be w***** as a fraction</t>
+  </si>
+  <si>
+    <t>written</t>
+  </si>
+  <si>
+    <t>200503</t>
+  </si>
+  <si>
+    <t>Irrational Numbers cannot be written as a f*****</t>
+  </si>
+  <si>
+    <t>In ***** numbers, the decimal expansion goes on forever without repeating</t>
+  </si>
+  <si>
+    <t>irrational</t>
+  </si>
+  <si>
+    <t>In Irrational Numbers, the decimal expansion goes on forever without *****ing</t>
+  </si>
+  <si>
+    <t>repeating</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +358,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,934 +675,696 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A12" ySplit="1"/>
+      <selection activeCell="D18" pane="bottomLeft" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>248</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Integer = Number w***** no fractional part</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>249</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Integer = Number with n***** fractional part</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>250</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Integer can be negative</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" s="3" t="n">
         <v>251</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Whole Numbers = positive integers with z*****</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>zero</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="6" t="n"/>
       <c r="G5" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6" spans="1:7">
       <c r="A6" s="3" t="n">
         <v>252</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Whole Numbers = positive i***** with zero</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>integers</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="6" t="n"/>
       <c r="G6" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7" spans="1:7">
       <c r="A7" s="3" t="n">
         <v>253</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Whole Numbers can be negative</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8" spans="1:7">
       <c r="A8" s="3" t="n">
         <v>254</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Natural Numbers = positive i*****</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>integers</t>
-        </is>
+      <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F8" s="9" t="n"/>
       <c r="G8" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9" spans="1:7">
       <c r="A9" s="3" t="n">
         <v>255</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Natural Numbers = p***** integers</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F9" s="9" t="n"/>
       <c r="G9" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10" spans="1:7">
       <c r="A10" t="n">
         <v>349</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>Natural Numbers = p***** i*****</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>positive integers</t>
-        </is>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F10" s="9" t="n"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200421</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="27.6" customHeight="1">
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="11" spans="1:7">
       <c r="A11" t="n">
         <v>350</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>Positive Integers = n***** n*****</t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>natural numbers</t>
-        </is>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="F11" s="9" t="n"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>200421</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="27.6" customHeight="1">
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="12" spans="1:7">
       <c r="A12" s="3" t="n">
         <v>256</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>Natual Numbers can be negative</t>
-        </is>
-      </c>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13" spans="1:7">
       <c r="A13" s="3" t="n">
         <v>257</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>Counting Numbers = another n***** for Natural Numbers</t>
-        </is>
-      </c>
-      <c r="E13" s="6" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="F13" s="6" t="n"/>
       <c r="G13" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14" spans="1:7">
       <c r="A14" s="3" t="n">
         <v>258</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>Counting Numbers = a***** name for Natual Numbers</t>
-        </is>
-      </c>
-      <c r="E14" s="6" t="inlineStr">
-        <is>
-          <t>another</t>
-        </is>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="F14" s="6" t="n"/>
       <c r="G14" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15" spans="1:7">
       <c r="A15" t="n">
         <v>354</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>Counting Numbers = Natural Numbers</t>
-        </is>
-      </c>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F15" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="n">
         <v>259</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>Counting Numbers can be negative</t>
-        </is>
-      </c>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F16" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17" spans="1:7">
       <c r="A17" s="3" t="n">
         <v>260</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>Rational Number = Number that can be written as a *****</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>fraction</t>
-        </is>
+      <c r="C17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18" spans="1:7">
       <c r="A18" s="3" t="n">
         <v>261</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>{p/q : p and q are integers, q is not zero} = r***** numbers</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>rational</t>
-        </is>
+      <c r="C18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="G18" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="19" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="19" spans="1:7">
       <c r="A19" s="3" t="n">
         <v>262</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>Rational Numbers = {p/q : p and q are i*****, q is not zero}</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>integers</t>
-        </is>
+      <c r="C19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20" spans="1:7">
       <c r="A20" t="n">
         <v>362</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>Rational Numbers = {p/q : ***** and ***** are *****, q is not zero}</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>p and q are integers</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>200502</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="n">
         <v>263</v>
       </c>
       <c r="B21" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>Rational Numbers can be negative</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="22" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="22" spans="1:7">
       <c r="A22" t="n">
         <v>328</v>
       </c>
       <c r="B22" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>Real Numbers are any number on the number l*****</t>
-        </is>
-      </c>
-      <c r="E22" s="5" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
+      <c r="C22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="G22" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row r="23" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="23" spans="1:7">
       <c r="A23" t="n">
         <v>329</v>
       </c>
       <c r="B23" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D23" s="5" t="inlineStr">
-        <is>
-          <t>Real Numbers are any number on the n***** line</t>
-        </is>
-      </c>
-      <c r="E23" s="5" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
+      <c r="C23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G23" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row r="24" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="24" spans="1:7">
       <c r="A24" t="n">
         <v>355</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D24" s="5" t="inlineStr">
-        <is>
-          <t>Number Type Ordering: ***** =&gt; Whole =&gt; Integer =&gt; Rational =&gt; Real</t>
-        </is>
-      </c>
-      <c r="E24" s="5" t="inlineStr">
-        <is>
-          <t>natural</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="27.6" customHeight="1">
+      <c r="C24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="25" spans="1:7">
       <c r="A25" t="n">
         <v>356</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D25" s="5" t="inlineStr">
-        <is>
-          <t>Number Type Ordering: Natural (Counting) =&gt; ***** =&gt; Integer =&gt; Rational =&gt; Real</t>
-        </is>
-      </c>
-      <c r="E25" s="5" t="inlineStr">
-        <is>
-          <t>whole</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="27.6" customHeight="1">
+      <c r="C25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="26" spans="1:7">
       <c r="A26" t="n">
         <v>357</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; ***** =&gt; Rational =&gt; Real</t>
-        </is>
-      </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="27.6" customHeight="1">
+      <c r="C26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="27" spans="1:7">
       <c r="A27" t="n">
         <v>358</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
-        <is>
-          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; ***** =&gt; Real</t>
-        </is>
-      </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>rational</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="27.6" customHeight="1">
+      <c r="C27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="28" spans="1:7">
       <c r="A28" t="n">
         <v>359</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; Rational =&gt; *****</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="27.6" customHeight="1">
+      <c r="C28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="29" spans="1:7">
       <c r="A29" t="n">
         <v>369</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>Irrational Numbers cannot be w***** as a fraction</t>
-        </is>
-      </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>written</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="27.6" customHeight="1">
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="30" spans="1:7">
       <c r="A30" t="n">
         <v>370</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>Irrational Numbers cannot be written as a f*****</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>fraction</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="27.6" customHeight="1">
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="31" spans="1:7">
       <c r="A31" t="n">
         <v>371</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
-        <is>
-          <t>In ***** numbers, the decimal expansion goes on forever without repeating</t>
-        </is>
-      </c>
-      <c r="E31" s="5" t="inlineStr">
-        <is>
-          <t>irrational</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="27.6" customHeight="1">
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="32" spans="1:7">
       <c r="A32" t="n">
         <v>372</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D32" s="5" t="inlineStr">
-        <is>
-          <t>In Irrational Numbers, the decimal expansion goes on forever without *****ing</t>
-        </is>
-      </c>
-      <c r="E32" s="5" t="inlineStr">
-        <is>
-          <t>repeating</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="33"/>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1405,7 +1376,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1417,7 +1388,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1428,7 +1399,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,215 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Integer = Number w***** no fractional part</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>Integer = Number with n***** fractional part</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Integer can be negative</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Whole Numbers = positive integers with z*****</t>
-  </si>
-  <si>
-    <t>zero</t>
-  </si>
-  <si>
-    <t>Whole Numbers = positive i***** with zero</t>
-  </si>
-  <si>
-    <t>integers</t>
-  </si>
-  <si>
-    <t>Whole Numbers can be negative</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Natural Numbers = positive i*****</t>
-  </si>
-  <si>
-    <t>Natural Numbers = p***** integers</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>Natural Numbers = p***** i*****</t>
-  </si>
-  <si>
-    <t>positive integers</t>
-  </si>
-  <si>
-    <t>200421</t>
-  </si>
-  <si>
-    <t>Positive Integers = n***** n*****</t>
-  </si>
-  <si>
-    <t>natural numbers</t>
-  </si>
-  <si>
-    <t>Natual Numbers can be negative</t>
-  </si>
-  <si>
-    <t>Counting Numbers = another n***** for Natural Numbers</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Counting Numbers = a***** name for Natual Numbers</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>Counting Numbers = Natural Numbers</t>
-  </si>
-  <si>
-    <t>200427</t>
-  </si>
-  <si>
-    <t>Counting Numbers can be negative</t>
-  </si>
-  <si>
-    <t>Rational Number = Number that can be written as a *****</t>
-  </si>
-  <si>
-    <t>fraction</t>
-  </si>
-  <si>
-    <t>{p/q : p and q are integers, q is not zero} = r***** numbers</t>
-  </si>
-  <si>
-    <t>rational</t>
-  </si>
-  <si>
-    <t>Rational Numbers = {p/q : p and q are i*****, q is not zero}</t>
-  </si>
-  <si>
-    <t>Rational Numbers = {p/q : ***** and ***** are *****, q is not zero}</t>
-  </si>
-  <si>
-    <t>p and q are integers</t>
-  </si>
-  <si>
-    <t>200502</t>
-  </si>
-  <si>
-    <t>Rational Numbers can be negative</t>
-  </si>
-  <si>
-    <t>Real Numbers are any number on the number l*****</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>Real Numbers are any number on the n***** line</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>Number Type Ordering: ***** =&gt; Whole =&gt; Integer =&gt; Rational =&gt; Real</t>
-  </si>
-  <si>
-    <t>natural</t>
-  </si>
-  <si>
-    <t>Number Type Ordering: Natural (Counting) =&gt; ***** =&gt; Integer =&gt; Rational =&gt; Real</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; ***** =&gt; Rational =&gt; Real</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; ***** =&gt; Real</t>
-  </si>
-  <si>
-    <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; Rational =&gt; *****</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>Irrational Numbers cannot be w***** as a fraction</t>
-  </si>
-  <si>
-    <t>written</t>
-  </si>
-  <si>
-    <t>200503</t>
-  </si>
-  <si>
-    <t>Irrational Numbers cannot be written as a f*****</t>
-  </si>
-  <si>
-    <t>In ***** numbers, the decimal expansion goes on forever without repeating</t>
-  </si>
-  <si>
-    <t>irrational</t>
-  </si>
-  <si>
-    <t>In Irrational Numbers, the decimal expansion goes on forever without *****ing</t>
-  </si>
-  <si>
-    <t>repeating</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,51 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -675,696 +466,934 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A12" ySplit="1"/>
-      <selection activeCell="D18" pane="bottomLeft" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="3" t="n">
         <v>248</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Integer = Number w***** no fractional part</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3">
       <c r="A3" s="3" t="n">
         <v>249</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Integer = Number with n***** fractional part</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4">
       <c r="A4" s="3" t="n">
         <v>250</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Integer can be negative</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G4" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>251</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Whole Numbers = positive integers with z*****</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
       </c>
       <c r="F5" s="6" t="n"/>
       <c r="G5" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>252</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Whole Numbers = positive i***** with zero</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>integers</t>
+        </is>
       </c>
       <c r="F6" s="6" t="n"/>
       <c r="G6" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7" spans="1:7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>253</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>14</v>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Whole Numbers can be negative</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G7" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8" spans="1:7">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>254</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>19</v>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Natural Numbers = positive i*****</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>integers</t>
+        </is>
       </c>
       <c r="F8" s="9" t="n"/>
       <c r="G8" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9" spans="1:7">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>255</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>24</v>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Natural Numbers = p***** integers</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
       <c r="F9" s="9" t="n"/>
       <c r="G9" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10" spans="1:7">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>349</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>26</v>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Natural Numbers = p***** i*****</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>positive integers</t>
+        </is>
       </c>
       <c r="F10" s="9" t="n"/>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="11" spans="1:7">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>350</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>29</v>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>Positive Integers = n***** n*****</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>natural numbers</t>
+        </is>
       </c>
       <c r="F11" s="9" t="n"/>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="12" spans="1:7">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" s="3" t="n">
         <v>256</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>14</v>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>Natual Numbers can be negative</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G12" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13" spans="1:7">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" s="3" t="n">
         <v>257</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>32</v>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>Counting Numbers = another n***** for Natural Numbers</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
       </c>
       <c r="F13" s="6" t="n"/>
       <c r="G13" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14" spans="1:7">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" s="3" t="n">
         <v>258</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>34</v>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>Counting Numbers = a***** name for Natual Numbers</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>another</t>
+        </is>
       </c>
       <c r="F14" s="6" t="n"/>
       <c r="G14" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15" spans="1:7">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>354</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>Counting Numbers = Natural Numbers</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="3" t="n">
         <v>259</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>14</v>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>Counting Numbers can be negative</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G16" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="17" spans="1:7">
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" s="3" t="n">
         <v>260</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>39</v>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>Rational Number = Number that can be written as a *****</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>fraction</t>
+        </is>
       </c>
       <c r="G17" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18" spans="1:7">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" s="3" t="n">
         <v>261</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>41</v>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>{p/q : p and q are integers, q is not zero} = r***** numbers</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>rational</t>
+        </is>
       </c>
       <c r="G18" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="19" spans="1:7">
+    <row r="19" ht="27.6" customHeight="1">
       <c r="A19" s="3" t="n">
         <v>262</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>19</v>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>Rational Numbers = {p/q : p and q are i*****, q is not zero}</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>integers</t>
+        </is>
       </c>
       <c r="G19" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20" spans="1:7">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>362</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>Rational Numbers = {p/q : ***** and ***** are *****, q is not zero}</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>p and q are integers</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>200502</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="3" t="n">
         <v>263</v>
       </c>
       <c r="B21" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>15</v>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>Rational Numbers can be negative</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G21" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="22" spans="1:7">
+    <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
         <v>328</v>
       </c>
       <c r="B22" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>48</v>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>Real Numbers are any number on the number l*****</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
       </c>
       <c r="G22" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="23" spans="1:7">
+    <row r="23" ht="27.6" customHeight="1">
       <c r="A23" t="n">
         <v>329</v>
       </c>
       <c r="B23" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>50</v>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>Real Numbers are any number on the n***** line</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
       </c>
       <c r="G23" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="24" spans="1:7">
+    <row r="24" ht="27.6" customHeight="1">
       <c r="A24" t="n">
         <v>355</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="25" spans="1:7">
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>Number Type Ordering: ***** =&gt; Whole =&gt; Integer =&gt; Rational =&gt; Real</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>natural</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="27.6" customHeight="1">
       <c r="A25" t="n">
         <v>356</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="26" spans="1:7">
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>Number Type Ordering: Natural (Counting) =&gt; ***** =&gt; Integer =&gt; Rational =&gt; Real</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>whole</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="27.6" customHeight="1">
       <c r="A26" t="n">
         <v>357</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="27" spans="1:7">
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; ***** =&gt; Rational =&gt; Real</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="27.6" customHeight="1">
       <c r="A27" t="n">
         <v>358</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="28" spans="1:7">
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; ***** =&gt; Real</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>rational</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="27.6" customHeight="1">
       <c r="A28" t="n">
         <v>359</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="29" spans="1:7">
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; Rational =&gt; *****</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="27.6" customHeight="1">
       <c r="A29" t="n">
         <v>369</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="30" spans="1:7">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>Irrational Numbers cannot be w***** as a fraction</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>written</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="27.6" customHeight="1">
       <c r="A30" t="n">
         <v>370</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="31" spans="1:7">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>Irrational Numbers cannot be written as a f*****</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>fraction</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="27.6" customHeight="1">
       <c r="A31" t="n">
         <v>371</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="32" spans="1:7">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>In ***** numbers, the decimal expansion goes on forever without repeating</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>irrational</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="27.6" customHeight="1">
       <c r="A32" t="n">
         <v>372</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>In Irrational Numbers, the decimal expansion goes on forever without *****ing</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>repeating</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="33"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1376,7 +1405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1388,7 +1417,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1399,7 +1428,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -464,11 +464,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -523,7 +523,7 @@
         <v>248</v>
       </c>
       <c r="B2" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         <v>249</v>
       </c>
       <c r="B3" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         <v>250</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         <v>251</v>
       </c>
       <c r="B5" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
         <v>252</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>253</v>
       </c>
       <c r="B7" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>254</v>
       </c>
       <c r="B8" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>255</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>349</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>350</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>256</v>
       </c>
       <c r="B12" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
       </c>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D16" s="6" t="inlineStr">
@@ -954,7 +954,7 @@
         <v>260</v>
       </c>
       <c r="B17" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="8" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>261</v>
       </c>
       <c r="B18" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="8" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>262</v>
       </c>
       <c r="B19" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="8" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>362</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>263</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="8" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C22" s="8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C23" s="8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
@@ -1143,7 +1143,7 @@
         <v>355</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="8" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>356</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="8" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>357</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>358</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="8" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>359</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D31" s="5" t="inlineStr">
@@ -1371,26 +1371,82 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>In Irrational Numbers, the decimal expansion goes on forever without *****ing</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>repeating</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="27.6" customHeight="1">
+      <c r="A33" t="n">
+        <v>1315</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D32" s="5" t="inlineStr">
-        <is>
-          <t>In Irrational Numbers, the decimal expansion goes on forever without *****ing</t>
-        </is>
-      </c>
-      <c r="E32" s="5" t="inlineStr">
-        <is>
-          <t>repeating</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="33"/>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>Image: Number Types Classification</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>natural, whole, integer, rational, irrational, real</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>201012</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="27.6" customHeight="1">
+      <c r="A34" t="n">
+        <v>1316</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>Image: Number Types Classification Reverse</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>real, irrational, rational, integer, whole, natural</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>201012</t>
+        </is>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
@@ -1446,7 +1514,6 @@
         </is>
       </c>
     </row>
-    <row r="35"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
@@ -1514,6 +1446,7 @@
         </is>
       </c>
     </row>
+    <row r="35"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,230 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Integer = Number w***** no fractional part</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>Integer = Number with n***** fractional part</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Integer can be negative</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Whole Numbers = positive integers with z*****</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>Whole Numbers = positive i***** with zero</t>
+  </si>
+  <si>
+    <t>integers</t>
+  </si>
+  <si>
+    <t>Whole Numbers can be negative</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Natural Numbers = positive i*****</t>
+  </si>
+  <si>
+    <t>Natural Numbers = p***** integers</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>Natural Numbers = p***** i*****</t>
+  </si>
+  <si>
+    <t>positive integers</t>
+  </si>
+  <si>
+    <t>200421</t>
+  </si>
+  <si>
+    <t>Positive Integers = n***** n*****</t>
+  </si>
+  <si>
+    <t>natural numbers</t>
+  </si>
+  <si>
+    <t>Natual Numbers can be negative</t>
+  </si>
+  <si>
+    <t>Counting Numbers = another n***** for Natural Numbers</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Counting Numbers = a***** name for Natual Numbers</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>Counting Numbers = Natural Numbers</t>
+  </si>
+  <si>
+    <t>200427</t>
+  </si>
+  <si>
+    <t>Counting Numbers can be negative</t>
+  </si>
+  <si>
+    <t>Rational Number = Number that can be written as a *****</t>
+  </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>{p/q : p and q are integers, q is not zero} = r***** numbers</t>
+  </si>
+  <si>
+    <t>rational</t>
+  </si>
+  <si>
+    <t>Rational Numbers = {p/q : p and q are i*****, q is not zero}</t>
+  </si>
+  <si>
+    <t>Rational Numbers = {p/q : ***** and ***** are *****, q is not zero}</t>
+  </si>
+  <si>
+    <t>p and q are integers</t>
+  </si>
+  <si>
+    <t>200502</t>
+  </si>
+  <si>
+    <t>Rational Numbers can be negative</t>
+  </si>
+  <si>
+    <t>Real Numbers are any number on the number l*****</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>Real Numbers are any number on the n***** line</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Number Type Ordering: ***** =&gt; Whole =&gt; Integer =&gt; Rational =&gt; Real</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>Number Type Ordering: Natural (Counting) =&gt; ***** =&gt; Integer =&gt; Rational =&gt; Real</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; ***** =&gt; Rational =&gt; Real</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; ***** =&gt; Real</t>
+  </si>
+  <si>
+    <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; Rational =&gt; *****</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>Irrational Numbers cannot be w***** as a fraction</t>
+  </si>
+  <si>
+    <t>written</t>
+  </si>
+  <si>
+    <t>200503</t>
+  </si>
+  <si>
+    <t>Irrational Numbers cannot be written as a f*****</t>
+  </si>
+  <si>
+    <t>In ***** numbers, the decimal expansion goes on forever without repeating</t>
+  </si>
+  <si>
+    <t>irrational</t>
+  </si>
+  <si>
+    <t>In Irrational Numbers, the decimal expansion goes on forever without *****ing</t>
+  </si>
+  <si>
+    <t>repeating</t>
+  </si>
+  <si>
+    <t>Image: Number Types Classification</t>
+  </si>
+  <si>
+    <t>natural, whole, integer, rational, irrational, real</t>
+  </si>
+  <si>
+    <t>201012</t>
+  </si>
+  <si>
+    <t>Image: Number Types Classification Reverse</t>
+  </si>
+  <si>
+    <t>real, irrational, rational, integer, whole, natural</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +373,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,990 +690,736 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A26" ySplit="1"/>
+      <selection activeCell="C35" pane="bottomLeft" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>248</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Integer = Number w***** no fractional part</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>249</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Integer = Number with n***** fractional part</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>250</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Integer can be negative</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="G4" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" s="3" t="n">
         <v>251</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Whole Numbers = positive integers with z*****</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>zero</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="6" t="n"/>
       <c r="G5" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6" spans="1:7">
       <c r="A6" s="3" t="n">
         <v>252</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Whole Numbers = positive i***** with zero</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>integers</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="6" t="n"/>
       <c r="G6" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7" spans="1:7">
       <c r="A7" s="3" t="n">
         <v>253</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Whole Numbers can be negative</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="8" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="8" spans="1:7">
       <c r="A8" s="3" t="n">
         <v>254</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Natural Numbers = positive i*****</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>integers</t>
-        </is>
+      <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F8" s="9" t="n"/>
       <c r="G8" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9" spans="1:7">
       <c r="A9" s="3" t="n">
         <v>255</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Natural Numbers = p***** integers</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F9" s="9" t="n"/>
       <c r="G9" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10" spans="1:7">
       <c r="A10" t="n">
         <v>349</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>Natural Numbers = p***** i*****</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>positive integers</t>
-        </is>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F10" s="9" t="n"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200421</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="27.6" customHeight="1">
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="11" spans="1:7">
       <c r="A11" t="n">
         <v>350</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>Positive Integers = n***** n*****</t>
-        </is>
-      </c>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>natural numbers</t>
-        </is>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="F11" s="9" t="n"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>200421</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="27.6" customHeight="1">
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="12" spans="1:7">
       <c r="A12" s="3" t="n">
         <v>256</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>Natual Numbers can be negative</t>
-        </is>
-      </c>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13" spans="1:7">
       <c r="A13" s="3" t="n">
         <v>257</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>Counting Numbers = another n***** for Natural Numbers</t>
-        </is>
-      </c>
-      <c r="E13" s="6" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="F13" s="6" t="n"/>
       <c r="G13" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14" spans="1:7">
       <c r="A14" s="3" t="n">
         <v>258</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>Counting Numbers = a***** name for Natual Numbers</t>
-        </is>
-      </c>
-      <c r="E14" s="6" t="inlineStr">
-        <is>
-          <t>another</t>
-        </is>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="F14" s="6" t="n"/>
       <c r="G14" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15" spans="1:7">
       <c r="A15" t="n">
         <v>354</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>Counting Numbers = Natural Numbers</t>
-        </is>
-      </c>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F15" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="n">
         <v>259</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>Counting Numbers can be negative</t>
-        </is>
-      </c>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F16" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17" spans="1:7">
       <c r="A17" s="3" t="n">
         <v>260</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>Rational Number = Number that can be written as a *****</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>fraction</t>
-        </is>
+      <c r="C17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18" spans="1:7">
       <c r="A18" s="3" t="n">
         <v>261</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>{p/q : p and q are integers, q is not zero} = r***** numbers</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>rational</t>
-        </is>
+      <c r="C18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="G18" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="19" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="19" spans="1:7">
       <c r="A19" s="3" t="n">
         <v>262</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>Rational Numbers = {p/q : p and q are i*****, q is not zero}</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>integers</t>
-        </is>
+      <c r="C19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20" spans="1:7">
       <c r="A20" t="n">
         <v>362</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>Rational Numbers = {p/q : ***** and ***** are *****, q is not zero}</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>p and q are integers</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>200502</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="n">
         <v>263</v>
       </c>
       <c r="B21" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C21" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>Rational Numbers can be negative</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="G21" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="22" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="22" spans="1:7">
       <c r="A22" t="n">
         <v>328</v>
       </c>
       <c r="B22" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>Real Numbers are any number on the number l*****</t>
-        </is>
-      </c>
-      <c r="E22" s="5" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
+      <c r="C22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="G22" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row r="23" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="23" spans="1:7">
       <c r="A23" t="n">
         <v>329</v>
       </c>
       <c r="B23" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D23" s="5" t="inlineStr">
-        <is>
-          <t>Real Numbers are any number on the n***** line</t>
-        </is>
-      </c>
-      <c r="E23" s="5" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
+      <c r="C23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G23" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row r="24" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="24" spans="1:7">
       <c r="A24" t="n">
         <v>355</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D24" s="5" t="inlineStr">
-        <is>
-          <t>Number Type Ordering: ***** =&gt; Whole =&gt; Integer =&gt; Rational =&gt; Real</t>
-        </is>
-      </c>
-      <c r="E24" s="5" t="inlineStr">
-        <is>
-          <t>natural</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="27.6" customHeight="1">
+      <c r="C24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="25" spans="1:7">
       <c r="A25" t="n">
         <v>356</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D25" s="5" t="inlineStr">
-        <is>
-          <t>Number Type Ordering: Natural (Counting) =&gt; ***** =&gt; Integer =&gt; Rational =&gt; Real</t>
-        </is>
-      </c>
-      <c r="E25" s="5" t="inlineStr">
-        <is>
-          <t>whole</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="27.6" customHeight="1">
+      <c r="C25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="26" spans="1:7">
       <c r="A26" t="n">
         <v>357</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; ***** =&gt; Rational =&gt; Real</t>
-        </is>
-      </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="27.6" customHeight="1">
+      <c r="C26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="27" spans="1:7">
       <c r="A27" t="n">
         <v>358</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
-        <is>
-          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; ***** =&gt; Real</t>
-        </is>
-      </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>rational</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="27.6" customHeight="1">
+      <c r="C27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="28" spans="1:7">
       <c r="A28" t="n">
         <v>359</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
-      <c r="C28" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; Rational =&gt; *****</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>200427</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="27.6" customHeight="1">
+      <c r="C28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="29" spans="1:7">
       <c r="A29" t="n">
         <v>369</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>Irrational Numbers cannot be w***** as a fraction</t>
-        </is>
-      </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>written</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="27.6" customHeight="1">
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="30" spans="1:7">
       <c r="A30" t="n">
         <v>370</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>Irrational Numbers cannot be written as a f*****</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>fraction</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="27.6" customHeight="1">
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="31" spans="1:7">
       <c r="A31" t="n">
         <v>371</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
-        <is>
-          <t>In ***** numbers, the decimal expansion goes on forever without repeating</t>
-        </is>
-      </c>
-      <c r="E31" s="5" t="inlineStr">
-        <is>
-          <t>irrational</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="27.6" customHeight="1">
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="32" spans="1:7">
       <c r="A32" t="n">
         <v>372</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D32" s="5" t="inlineStr">
-        <is>
-          <t>In Irrational Numbers, the decimal expansion goes on forever without *****ing</t>
-        </is>
-      </c>
-      <c r="E32" s="5" t="inlineStr">
-        <is>
-          <t>repeating</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>200503</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="27.6" customHeight="1">
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="33" spans="1:7">
       <c r="A33" t="n">
         <v>1315</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D33" s="5" t="inlineStr">
-        <is>
-          <t>Image: Number Types Classification</t>
-        </is>
-      </c>
-      <c r="E33" s="5" t="inlineStr">
-        <is>
-          <t>natural, whole, integer, rational, irrational, real</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>201012</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="27.6" customHeight="1">
+      <c r="C33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="34" spans="1:7">
       <c r="A34" t="n">
         <v>1316</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
-      <c r="C34" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D34" s="5" t="inlineStr">
-        <is>
-          <t>Image: Number Types Classification Reverse</t>
-        </is>
-      </c>
-      <c r="E34" s="5" t="inlineStr">
-        <is>
-          <t>real, irrational, rational, integer, whole, natural</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>201012</t>
-        </is>
-      </c>
-    </row>
-    <row r="35"/>
+      <c r="C34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1461,7 +1431,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1473,7 +1443,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1484,7 +1454,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,230 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Integer = Number w***** no fractional part</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>Integer = Number with n***** fractional part</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Integer can be negative</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Whole Numbers = positive integers with z*****</t>
-  </si>
-  <si>
-    <t>zero</t>
-  </si>
-  <si>
-    <t>Whole Numbers = positive i***** with zero</t>
-  </si>
-  <si>
-    <t>integers</t>
-  </si>
-  <si>
-    <t>Whole Numbers can be negative</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Natural Numbers = positive i*****</t>
-  </si>
-  <si>
-    <t>Natural Numbers = p***** integers</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>Natural Numbers = p***** i*****</t>
-  </si>
-  <si>
-    <t>positive integers</t>
-  </si>
-  <si>
-    <t>200421</t>
-  </si>
-  <si>
-    <t>Positive Integers = n***** n*****</t>
-  </si>
-  <si>
-    <t>natural numbers</t>
-  </si>
-  <si>
-    <t>Natual Numbers can be negative</t>
-  </si>
-  <si>
-    <t>Counting Numbers = another n***** for Natural Numbers</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Counting Numbers = a***** name for Natual Numbers</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>Counting Numbers = Natural Numbers</t>
-  </si>
-  <si>
-    <t>200427</t>
-  </si>
-  <si>
-    <t>Counting Numbers can be negative</t>
-  </si>
-  <si>
-    <t>Rational Number = Number that can be written as a *****</t>
-  </si>
-  <si>
-    <t>fraction</t>
-  </si>
-  <si>
-    <t>{p/q : p and q are integers, q is not zero} = r***** numbers</t>
-  </si>
-  <si>
-    <t>rational</t>
-  </si>
-  <si>
-    <t>Rational Numbers = {p/q : p and q are i*****, q is not zero}</t>
-  </si>
-  <si>
-    <t>Rational Numbers = {p/q : ***** and ***** are *****, q is not zero}</t>
-  </si>
-  <si>
-    <t>p and q are integers</t>
-  </si>
-  <si>
-    <t>200502</t>
-  </si>
-  <si>
-    <t>Rational Numbers can be negative</t>
-  </si>
-  <si>
-    <t>Real Numbers are any number on the number l*****</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>Real Numbers are any number on the n***** line</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>Number Type Ordering: ***** =&gt; Whole =&gt; Integer =&gt; Rational =&gt; Real</t>
-  </si>
-  <si>
-    <t>natural</t>
-  </si>
-  <si>
-    <t>Number Type Ordering: Natural (Counting) =&gt; ***** =&gt; Integer =&gt; Rational =&gt; Real</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; ***** =&gt; Rational =&gt; Real</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; ***** =&gt; Real</t>
-  </si>
-  <si>
-    <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; Rational =&gt; *****</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>Irrational Numbers cannot be w***** as a fraction</t>
-  </si>
-  <si>
-    <t>written</t>
-  </si>
-  <si>
-    <t>200503</t>
-  </si>
-  <si>
-    <t>Irrational Numbers cannot be written as a f*****</t>
-  </si>
-  <si>
-    <t>In ***** numbers, the decimal expansion goes on forever without repeating</t>
-  </si>
-  <si>
-    <t>irrational</t>
-  </si>
-  <si>
-    <t>In Irrational Numbers, the decimal expansion goes on forever without *****ing</t>
-  </si>
-  <si>
-    <t>repeating</t>
-  </si>
-  <si>
-    <t>Image: Number Types Classification</t>
-  </si>
-  <si>
-    <t>natural, whole, integer, rational, irrational, real</t>
-  </si>
-  <si>
-    <t>201012</t>
-  </si>
-  <si>
-    <t>Image: Number Types Classification Reverse</t>
-  </si>
-  <si>
-    <t>real, irrational, rational, integer, whole, natural</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,51 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -690,736 +466,990 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A26" ySplit="1"/>
-      <selection activeCell="C35" pane="bottomLeft" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="3.8984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.8984375" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="3" t="n">
         <v>248</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Integer = Number w***** no fractional part</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3">
       <c r="A3" s="3" t="n">
         <v>249</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Integer = Number with n***** fractional part</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4">
       <c r="A4" s="3" t="n">
         <v>250</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Integer can be negative</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G4" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>251</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Whole Numbers = positive integers with z*****</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>zero</t>
+        </is>
       </c>
       <c r="F5" s="6" t="n"/>
       <c r="G5" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>252</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Whole Numbers = positive i***** with zero</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>integers</t>
+        </is>
       </c>
       <c r="F6" s="6" t="n"/>
       <c r="G6" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7" spans="1:7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>253</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>14</v>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Whole Numbers can be negative</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G7" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="8" spans="1:7">
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>254</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>19</v>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Natural Numbers = positive i*****</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>integers</t>
+        </is>
       </c>
       <c r="F8" s="9" t="n"/>
       <c r="G8" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9" spans="1:7">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>255</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>24</v>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Natural Numbers = p***** integers</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
       <c r="F9" s="9" t="n"/>
       <c r="G9" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10" spans="1:7">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>349</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>26</v>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Natural Numbers = p***** i*****</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>positive integers</t>
+        </is>
       </c>
       <c r="F10" s="9" t="n"/>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="11" spans="1:7">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>350</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>29</v>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>Positive Integers = n***** n*****</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>natural numbers</t>
+        </is>
       </c>
       <c r="F11" s="9" t="n"/>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="12" spans="1:7">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200421</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" s="3" t="n">
         <v>256</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>14</v>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>Natual Numbers can be negative</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G12" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13" spans="1:7">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" s="3" t="n">
         <v>257</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>32</v>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>Counting Numbers = another n***** for Natural Numbers</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
       </c>
       <c r="F13" s="6" t="n"/>
       <c r="G13" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14" spans="1:7">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" s="3" t="n">
         <v>258</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>34</v>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>Counting Numbers = a***** name for Natual Numbers</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>another</t>
+        </is>
       </c>
       <c r="F14" s="6" t="n"/>
       <c r="G14" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15" spans="1:7">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>354</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>Counting Numbers = Natural Numbers</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="3" t="n">
         <v>259</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>14</v>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>Counting Numbers can be negative</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G16" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="17" spans="1:7">
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" s="3" t="n">
         <v>260</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>39</v>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>Rational Number = Number that can be written as a *****</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>fraction</t>
+        </is>
       </c>
       <c r="G17" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18" spans="1:7">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" s="3" t="n">
         <v>261</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>41</v>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>{p/q : p and q are integers, q is not zero} = r***** numbers</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>rational</t>
+        </is>
       </c>
       <c r="G18" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="19" spans="1:7">
+    <row r="19" ht="27.6" customHeight="1">
       <c r="A19" s="3" t="n">
         <v>262</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>19</v>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>Rational Numbers = {p/q : p and q are i*****, q is not zero}</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>integers</t>
+        </is>
       </c>
       <c r="G19" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20" spans="1:7">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" t="n">
         <v>362</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>Rational Numbers = {p/q : ***** and ***** are *****, q is not zero}</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>p and q are integers</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>200502</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="3" t="n">
         <v>263</v>
       </c>
       <c r="B21" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>15</v>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>Rational Numbers can be negative</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G21" s="12" t="n">
         <v>210218</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="22" spans="1:7">
+    <row r="22" ht="27.6" customHeight="1">
       <c r="A22" t="n">
         <v>328</v>
       </c>
       <c r="B22" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>48</v>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>Real Numbers are any number on the number l*****</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
       </c>
       <c r="G22" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="23" spans="1:7">
+    <row r="23" ht="27.6" customHeight="1">
       <c r="A23" t="n">
         <v>329</v>
       </c>
       <c r="B23" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>50</v>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>Real Numbers are any number on the n***** line</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
       </c>
       <c r="G23" s="12" t="n">
         <v>210310</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="24" spans="1:7">
+    <row r="24" ht="27.6" customHeight="1">
       <c r="A24" t="n">
         <v>355</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="25" spans="1:7">
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>Number Type Ordering: ***** =&gt; Whole =&gt; Integer =&gt; Rational =&gt; Real</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>natural</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="27.6" customHeight="1">
       <c r="A25" t="n">
         <v>356</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="26" spans="1:7">
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>Number Type Ordering: Natural (Counting) =&gt; ***** =&gt; Integer =&gt; Rational =&gt; Real</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>whole</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="27.6" customHeight="1">
       <c r="A26" t="n">
         <v>357</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="27" spans="1:7">
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; ***** =&gt; Rational =&gt; Real</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="27.6" customHeight="1">
       <c r="A27" t="n">
         <v>358</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="28" spans="1:7">
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; ***** =&gt; Real</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>rational</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="27.6" customHeight="1">
       <c r="A28" t="n">
         <v>359</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="29" spans="1:7">
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; Rational =&gt; *****</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>200427</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="27.6" customHeight="1">
       <c r="A29" t="n">
         <v>369</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="30" spans="1:7">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>Irrational Numbers cannot be w***** as a fraction</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>written</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="27.6" customHeight="1">
       <c r="A30" t="n">
         <v>370</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="31" spans="1:7">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>Irrational Numbers cannot be written as a f*****</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>fraction</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="27.6" customHeight="1">
       <c r="A31" t="n">
         <v>371</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="32" spans="1:7">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>In ***** numbers, the decimal expansion goes on forever without repeating</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>irrational</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="27.6" customHeight="1">
       <c r="A32" t="n">
         <v>372</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="33" spans="1:7">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>In Irrational Numbers, the decimal expansion goes on forever without *****ing</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>repeating</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>200503</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="27.6" customHeight="1">
       <c r="A33" t="n">
         <v>1315</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="34" spans="1:7">
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>Image: Number Types Classification</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>natural, whole, integer, rational, irrational, real</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>201012</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="27.6" customHeight="1">
       <c r="A34" t="n">
         <v>1316</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7"/>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>Image: Number Types Classification Reverse</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>real, irrational, rational, integer, whole, natural</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>201012</t>
+        </is>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1431,7 +1461,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1443,7 +1473,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1454,7 +1484,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +600,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>Integer = Number w***** no fractional part</t>
+          <t>Integer = Number w*** no fractional part</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
@@ -559,7 +627,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Integer = Number with n***** fractional part</t>
+          <t>Integer = Number with n* fractional part</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -617,7 +685,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>Whole Numbers = positive integers with z*****</t>
+          <t>Whole Numbers = positive integers with z***</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
@@ -644,7 +712,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>Whole Numbers = positive i***** with zero</t>
+          <t>Whole Numbers = positive i********* with zero</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
@@ -702,7 +770,7 @@
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>Natural Numbers = positive i*****</t>
+          <t>Natural Numbers = positive i*********</t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
@@ -729,7 +797,7 @@
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>Natural Numbers = p***** integers</t>
+          <t>Natural Numbers = p********* integers</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
@@ -845,7 +913,7 @@
       </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>Counting Numbers = another n***** for Natural Numbers</t>
+          <t>Counting Numbers = another n*** for Natural Numbers</t>
         </is>
       </c>
       <c r="E13" s="6" t="inlineStr">
@@ -872,7 +940,7 @@
       </c>
       <c r="D14" s="6" t="inlineStr">
         <is>
-          <t>Counting Numbers = a***** name for Natual Numbers</t>
+          <t>Counting Numbers = a******* name for Natual Numbers</t>
         </is>
       </c>
       <c r="E14" s="6" t="inlineStr">
@@ -963,7 +1031,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>Rational Number = Number that can be written as a *****</t>
+          <t>Rational Number = Number that can be written as a **************</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
@@ -989,7 +1057,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>{p/q : p and q are integers, q is not zero} = r***** numbers</t>
+          <t>{******* : p and q are integers, q is not zero} = r********* numbers</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
@@ -1015,7 +1083,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>Rational Numbers = {p/q : p and q are i*****, q is not zero}</t>
+          <t>Rational Numbers = {p/q : p and q are i*******, q is not zero}</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -1100,7 +1168,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>Real Numbers are any number on the number l*****</t>
+          <t>Real Numbers are any number on the number l***</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
@@ -1126,7 +1194,7 @@
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>Real Numbers are any number on the n***** line</t>
+          <t>R***** Numbers are any number on the n***** line</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
@@ -1152,7 +1220,7 @@
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>Number Type Ordering: ***** =&gt; Whole =&gt; Integer =&gt; Rational =&gt; Real</t>
+          <t>Number Type Ordering: ********* =&gt; Whole =&gt; Integer =&gt; Rational =&gt; Real</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
@@ -1208,7 +1276,7 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; ***** =&gt; Rational =&gt; Real</t>
+          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; ********* =&gt; Rational =&gt; Real</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -1236,7 +1304,7 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; ***** =&gt; Real</t>
+          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; ************** =&gt; Real</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
@@ -1264,7 +1332,7 @@
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; Rational =&gt; *****</t>
+          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; Rational =&gt; ****</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
@@ -1292,7 +1360,7 @@
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>Irrational Numbers cannot be w***** as a fraction</t>
+          <t>Irrational Numbers cannot be w******* as a fraction</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
@@ -1320,7 +1388,7 @@
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>Irrational Numbers cannot be written as a f*****</t>
+          <t>Irrational Numbers cannot be written as a f*********</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
@@ -1348,7 +1416,7 @@
       </c>
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>In ***** numbers, the decimal expansion goes on forever without repeating</t>
+          <t>In ********** numbers, the decimal expansion goes on forever without repeating</t>
         </is>
       </c>
       <c r="E31" s="5" t="inlineStr">

--- a/Questions/Mathematics/Numbers/Number Types.xlsx
+++ b/Questions/Mathematics/Numbers/Number Types.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -712,7 +644,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>Whole Numbers = positive i********* with zero</t>
+          <t>Whole Numbers = positive i***** with zero</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
@@ -770,7 +702,7 @@
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>Natural Numbers = positive i*********</t>
+          <t>Natural Numbers = positive i*****</t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
@@ -797,7 +729,7 @@
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>Natural Numbers = p********* integers</t>
+          <t>Natural Numbers = p***** integers</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
@@ -940,7 +872,7 @@
       </c>
       <c r="D14" s="6" t="inlineStr">
         <is>
-          <t>Counting Numbers = a******* name for Natual Numbers</t>
+          <t>Counting Numbers = a***** name for Natual Numbers</t>
         </is>
       </c>
       <c r="E14" s="6" t="inlineStr">
@@ -1031,7 +963,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>Rational Number = Number that can be written as a **************</t>
+          <t>Rational Number = Number that can be written as a *****</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
@@ -1057,7 +989,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>{******* : p and q are integers, q is not zero} = r********* numbers</t>
+          <t>{***** : p and q are integers, q is not zero} = r***** numbers</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
@@ -1083,7 +1015,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>Rational Numbers = {p/q : p and q are i*******, q is not zero}</t>
+          <t>Rational Numbers = {p/q : p and q are i*****, q is not zero}</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -1220,7 +1152,7 @@
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>Number Type Ordering: ********* =&gt; Whole =&gt; Integer =&gt; Rational =&gt; Real</t>
+          <t>Number Type Ordering: ***** =&gt; Whole =&gt; Integer =&gt; Rational =&gt; Real</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
@@ -1276,7 +1208,7 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; ********* =&gt; Rational =&gt; Real</t>
+          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; ***** =&gt; Rational =&gt; Real</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -1304,7 +1236,7 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; ************** =&gt; Real</t>
+          <t>Number Type Ordering: Natural (Counting) =&gt; Whole =&gt; Integer =&gt; ***** =&gt; Real</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
@@ -1360,7 +1292,7 @@
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>Irrational Numbers cannot be w******* as a fraction</t>
+          <t>Irrational Numbers cannot be w***** as a fraction</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
@@ -1388,7 +1320,7 @@
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>Irrational Numbers cannot be written as a f*********</t>
+          <t>Irrational Numbers cannot be written as a f*****</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
@@ -1416,7 +1348,7 @@
       </c>
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>In ********** numbers, the decimal expansion goes on forever without repeating</t>
+          <t>In ***** numbers, the decimal expansion goes on forever without repeating</t>
         </is>
       </c>
       <c r="E31" s="5" t="inlineStr">
